--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1153.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1153.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.906369232486643</v>
+        <v>1.161827087402344</v>
       </c>
       <c r="B1">
-        <v>2.083889840373286</v>
+        <v>2.414998531341553</v>
       </c>
       <c r="C1">
-        <v>2.229857036747746</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.139240351429957</v>
+        <v>2.380990028381348</v>
       </c>
       <c r="E1">
-        <v>1.827005076329168</v>
+        <v>1.232399582862854</v>
       </c>
     </row>
   </sheetData>
